--- a/output/fit_clients/fit_round_425.xlsx
+++ b/output/fit_clients/fit_round_425.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1732553392.172754</v>
+        <v>1721481849.673853</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07423956200547033</v>
+        <v>0.07237128100462362</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04523233856870396</v>
+        <v>0.03215978925058286</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>866276655.7528148</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1844624924.907439</v>
+        <v>2495911762.745811</v>
       </c>
       <c r="F3" t="n">
-        <v>0.174230608986629</v>
+        <v>0.1646237365325263</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04228235308376499</v>
+        <v>0.03717231699973706</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>922312478.4727559</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5111817719.074042</v>
+        <v>3517555806.442435</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1313410959286103</v>
+        <v>0.1588020077025979</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03706521880573753</v>
+        <v>0.02311114951118238</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>153</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2555908952.508566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3338180460.624454</v>
+        <v>3460660704.353129</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07352657336505963</v>
+        <v>0.0859770899144536</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0445873447618039</v>
+        <v>0.0440858135718413</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>157</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1669090277.81264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2148287045.652793</v>
+        <v>2325465931.410612</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09545390087832339</v>
+        <v>0.0996217170711374</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03950982241685719</v>
+        <v>0.0550256765521572</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1074143536.387891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2747379229.573365</v>
+        <v>2554157592.732517</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08265048871926271</v>
+        <v>0.07623614703629558</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04789513122913944</v>
+        <v>0.04877219235148198</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>133</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1373689604.023251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3484906535.718253</v>
+        <v>3349415808.114213</v>
       </c>
       <c r="F8" t="n">
-        <v>0.149925588982052</v>
+        <v>0.1489969510507989</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02124590037883446</v>
+        <v>0.03038340313376296</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>136</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1742453374.960409</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2166419964.427752</v>
+        <v>1892653730.67236</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1708440736213607</v>
+        <v>0.1365407187475417</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0369316640167248</v>
+        <v>0.02916349081830491</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1083209985.754482</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4663924543.83082</v>
+        <v>5146729791.516304</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1589048158938953</v>
+        <v>0.1744174783464766</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0339923410657146</v>
+        <v>0.05252594244646357</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>179</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2331962345.227747</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3978428969.192984</v>
+        <v>4137218669.521678</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1267425485177323</v>
+        <v>0.1208772373990216</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04900744792844227</v>
+        <v>0.03716430650456455</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>176</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1989214495.788189</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2426615066.815051</v>
+        <v>2542809294.68663</v>
       </c>
       <c r="F12" t="n">
-        <v>0.136143781690767</v>
+        <v>0.1459966931771463</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0423342314373125</v>
+        <v>0.0383699673489485</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>145</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1213307498.940105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5241666874.085384</v>
+        <v>4040552236.056504</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08039747592398012</v>
+        <v>0.07060752040171299</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02567094105094129</v>
+        <v>0.02133888985405065</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>142</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2620833428.923028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3359597091.892624</v>
+        <v>2561093860.044714</v>
       </c>
       <c r="F14" t="n">
-        <v>0.129012022879353</v>
+        <v>0.1549360280478606</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03766749510852774</v>
+        <v>0.03691668744453883</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1679798554.361733</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1368059940.785403</v>
+        <v>1758065141.706974</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1027082361213689</v>
+        <v>0.0747980985751652</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03519326390266371</v>
+        <v>0.04522500353265229</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>684030025.996299</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2665326970.996903</v>
+        <v>1940714065.020011</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08949971191438133</v>
+        <v>0.07016816071037064</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05109626415886203</v>
+        <v>0.03662906622181122</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>87</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1332663501.55953</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3869494900.61356</v>
+        <v>3958075250.212439</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1153688958583718</v>
+        <v>0.1526524600323807</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04344911397172881</v>
+        <v>0.0512140801351768</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>126</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1934747491.328908</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2605715753.329408</v>
+        <v>2822891190.649909</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1243118352283752</v>
+        <v>0.1729294546452279</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02684561474180037</v>
+        <v>0.02112952723958182</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>139</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1302857935.450366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1096515907.548016</v>
+        <v>931652611.2973527</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1665694644273334</v>
+        <v>0.1171721357422674</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01729828439422315</v>
+        <v>0.0252031706096097</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>548258006.5110568</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2148665730.627086</v>
+        <v>2735083617.041857</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1171616298017168</v>
+        <v>0.1180603977545817</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0276817832343878</v>
+        <v>0.02577439618324303</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>58</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1074332875.852514</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2220348472.032941</v>
+        <v>1773154398.794064</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1003541266300985</v>
+        <v>0.1010045324521322</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03382885219681281</v>
+        <v>0.03849009517992712</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1110174250.918813</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2777426557.626451</v>
+        <v>2674373541.763841</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09065150929297937</v>
+        <v>0.09474568058286507</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04852632521112828</v>
+        <v>0.03700196062218979</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1388713353.690503</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>960679639.2319667</v>
+        <v>1151781700.397168</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1308925028848049</v>
+        <v>0.1194505840434096</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04393853987435168</v>
+        <v>0.03417477586267236</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>480339896.4605459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3312233608.504565</v>
+        <v>3292137396.962898</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1343587022512731</v>
+        <v>0.1289446218516966</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02878819665947005</v>
+        <v>0.03418831029651122</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>124</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1656116818.498209</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>950880371.8445561</v>
+        <v>990278126.0639091</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09762630955692357</v>
+        <v>0.08092235703140936</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03097127489243711</v>
+        <v>0.02453207713676976</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>475440261.2424562</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1004089086.204728</v>
+        <v>1181422817.075456</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1107046029892941</v>
+        <v>0.1026358291605605</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03593378487688911</v>
+        <v>0.03622354286234362</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>502044516.1891579</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2958430554.424245</v>
+        <v>3360503338.586109</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1437913779530875</v>
+        <v>0.1516820121664026</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01662525535368717</v>
+        <v>0.02309587541245934</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1479215339.10502</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2375785080.115965</v>
+        <v>2533228589.667217</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1146969292407136</v>
+        <v>0.1385860120787593</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03106602495956617</v>
+        <v>0.04088903997838303</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>138</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1187892497.102171</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4465075845.705742</v>
+        <v>5343562550.401291</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1333971148925459</v>
+        <v>0.09513553013193252</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04665346963185368</v>
+        <v>0.03624450711158719</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>188</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2232537907.47435</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1471660866.714792</v>
+        <v>2258532167.16729</v>
       </c>
       <c r="F30" t="n">
-        <v>0.110166755122188</v>
+        <v>0.1286966302670027</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03208224382732296</v>
+        <v>0.03735851851965379</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>735830410.6590614</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1124427209.481791</v>
+        <v>1027873765.597165</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07594849865016733</v>
+        <v>0.1013205873777143</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04471303751959267</v>
+        <v>0.0428891475877889</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>562213574.0000437</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1421614119.930666</v>
+        <v>1401792432.790343</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1171584686428586</v>
+        <v>0.09164263855158263</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02853864624430151</v>
+        <v>0.03000635957638969</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>710807112.0964698</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2201773816.199496</v>
+        <v>2289845334.547808</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1908489331562453</v>
+        <v>0.1724885140265684</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0535230349022147</v>
+        <v>0.05581246884965108</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>129</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1100886971.713678</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>958200944.6569179</v>
+        <v>1527812219.321035</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07838835868777506</v>
+        <v>0.08103027972325948</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02629998688112335</v>
+        <v>0.02531341177819367</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>479100517.0966148</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1079178921.246804</v>
+        <v>1117381974.143236</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09819936022021082</v>
+        <v>0.09155093650042695</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03243567313018478</v>
+        <v>0.04123896948264625</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>539589461.8513938</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2543397337.497027</v>
+        <v>2231019684.775076</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1448492599963849</v>
+        <v>0.1127375066052678</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01891096291561749</v>
+        <v>0.02066987510003737</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>107</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1271698687.275639</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1947250593.660254</v>
+        <v>2006141125.622446</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08701547936640905</v>
+        <v>0.06843330321160447</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03819460547612692</v>
+        <v>0.03648042623389985</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>115</v>
-      </c>
-      <c r="J37" t="n">
-        <v>973625316.8801458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1486573662.260838</v>
+        <v>1673902493.916631</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09770247610116028</v>
+        <v>0.1190015789987591</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03031240475762263</v>
+        <v>0.02775594370461215</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>743286882.3051817</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1526208106.562275</v>
+        <v>1653975810.899261</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1397375766422937</v>
+        <v>0.1428768150200749</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03128429542151177</v>
+        <v>0.02088733386352434</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>763104119.7392071</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1267954944.92819</v>
+        <v>1439437611.368563</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1261892874483582</v>
+        <v>0.14904010680492</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0377818941869955</v>
+        <v>0.0399113205032775</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>633977496.7722561</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1999183505.480133</v>
+        <v>2526589109.619867</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1339108917926256</v>
+        <v>0.1654456225948314</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04365888772057937</v>
+        <v>0.04178550548728079</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>999591827.1066734</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2782396453.459369</v>
+        <v>3180297833.706726</v>
       </c>
       <c r="F42" t="n">
-        <v>0.11344088996963</v>
+        <v>0.09809048325011836</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04256961865942721</v>
+        <v>0.02972557632730054</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1391198172.196325</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2623196537.738011</v>
+        <v>2649560666.996081</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1560846834958655</v>
+        <v>0.1543994910982276</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02034534385487961</v>
+        <v>0.02089517675900331</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>147</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1311598305.170018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2121617792.30398</v>
+        <v>2202847622.427983</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06592325544539518</v>
+        <v>0.06557690665461564</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03360571013038619</v>
+        <v>0.03520966256582083</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1060809026.780902</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1643002142.503722</v>
+        <v>2477204299.977181</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1477314741320981</v>
+        <v>0.1691272672001778</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05129811033991508</v>
+        <v>0.03574204109226631</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>821501026.139531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5423298816.652814</v>
+        <v>4988070487.181202</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1751039387115982</v>
+        <v>0.1381999610105952</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04297743078923707</v>
+        <v>0.06052044139030624</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>151</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2711649459.355651</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4642499209.76626</v>
+        <v>4560639154.562115</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2020305233318135</v>
+        <v>0.131983074607569</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04257938826637984</v>
+        <v>0.05521577313134714</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>116</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2321249640.423976</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3909253219.172784</v>
+        <v>3640015125.11252</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1049316507592994</v>
+        <v>0.09682396468901429</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02562965551927368</v>
+        <v>0.03300192557722097</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1954626649.248466</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1553598979.387364</v>
+        <v>1756122615.124272</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1777707881156748</v>
+        <v>0.1528499949019788</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04383655087668785</v>
+        <v>0.04141713714613317</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>776799513.4040587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3065296801.553653</v>
+        <v>3271268621.372837</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1096002555964731</v>
+        <v>0.1568945787180695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03958530020786874</v>
+        <v>0.04943362711389295</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>145</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1532648455.998694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1292476244.549568</v>
+        <v>1417124573.597291</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1193311312132155</v>
+        <v>0.1694781454979825</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03363659910373922</v>
+        <v>0.03356697756557896</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>646238158.8612938</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3330783156.638114</v>
+        <v>3356353540.737035</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08397486347975049</v>
+        <v>0.08436848305497352</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06079789484778973</v>
+        <v>0.04320724628077147</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>175</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1665391674.20377</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2882453252.817483</v>
+        <v>2831727963.570634</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1522568088262103</v>
+        <v>0.1754849334136768</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02593528092602736</v>
+        <v>0.02164130350956068</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>121</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1441226666.940987</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4964042702.894744</v>
+        <v>4832890522.466605</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1387385887821384</v>
+        <v>0.1678311457591854</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05057210859822808</v>
+        <v>0.03759468869802608</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>139</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2482021491.242192</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3780079094.658027</v>
+        <v>4361191224.223053</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1658138713308178</v>
+        <v>0.1602554582188455</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02704088440804709</v>
+        <v>0.02674099483337713</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1890039512.576981</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1482331320.513659</v>
+        <v>1762554066.409415</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1088814256815033</v>
+        <v>0.09981560022251616</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0559397176166027</v>
+        <v>0.05193402141003475</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>741165705.1231856</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3233765516.190963</v>
+        <v>3872494356.577693</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1731782417849991</v>
+        <v>0.1499664947157748</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02349001742178782</v>
+        <v>0.02070954720577017</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>135</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1616882782.145817</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1157912874.506176</v>
+        <v>1263141884.216172</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1663705598723453</v>
+        <v>0.133170979895713</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02883011570543335</v>
+        <v>0.02648114097566193</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>578956499.6218992</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4666175331.779203</v>
+        <v>4738511718.721015</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09495149075236592</v>
+        <v>0.07927745006750136</v>
       </c>
       <c r="G59" t="n">
-        <v>0.041218368181984</v>
+        <v>0.03457407800248062</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2333087609.718877</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3611095072.747082</v>
+        <v>3704565696.263261</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1924335594816871</v>
+        <v>0.1268984191778897</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02566328088069897</v>
+        <v>0.02332279060159106</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>132</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1805547670.840268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2283363379.617067</v>
+        <v>3176235326.869604</v>
       </c>
       <c r="F61" t="n">
-        <v>0.141833732686384</v>
+        <v>0.1773565795709487</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02922702729979968</v>
+        <v>0.02275594787564773</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>146</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1141681737.876798</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1334726500.177182</v>
+        <v>1661821901.336704</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1246801563759445</v>
+        <v>0.1762374233357424</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0482359541648029</v>
+        <v>0.04470222281995271</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>667363208.3672875</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3580991026.197025</v>
+        <v>3709813905.278014</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07676619668888902</v>
+        <v>0.09405606158006452</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03060238515389195</v>
+        <v>0.03389055570148535</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1790495594.185384</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5388268848.304358</v>
+        <v>4769614497.652924</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1374840034426796</v>
+        <v>0.1210764011844499</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03257338372456278</v>
+        <v>0.02790042936720018</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>132</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2694134557.682231</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5618966089.163549</v>
+        <v>5630017976.25416</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1117978098760122</v>
+        <v>0.1352752748629369</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02680469189634298</v>
+        <v>0.02132539345551106</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>152</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2809482966.557344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5219138707.938125</v>
+        <v>4383006774.455413</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1147803072050564</v>
+        <v>0.1004458996612203</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0371741862444597</v>
+        <v>0.0311142651544323</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>123</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2609569392.85699</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2922223346.676054</v>
+        <v>2961153840.127043</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06530921022757731</v>
+        <v>0.07175670692391975</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03743513087029129</v>
+        <v>0.0462983551627255</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>136</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1461111698.22485</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4921501367.321054</v>
+        <v>4269785292.161687</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1280732245847543</v>
+        <v>0.1522704825928812</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04840353322334012</v>
+        <v>0.0453506952463508</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>137</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2460750735.302733</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2486690725.509254</v>
+        <v>2074415354.017509</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1288317793880964</v>
+        <v>0.118956211543217</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04543380060702173</v>
+        <v>0.04483565303336677</v>
       </c>
       <c r="H69" t="b">
         <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1243345430.641671</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2423135849.478229</v>
+        <v>3608376628.521018</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08960704716400295</v>
+        <v>0.07372299020952851</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04541540708372123</v>
+        <v>0.03011338916954853</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>120</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1211567864.164387</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5520235415.381479</v>
+        <v>4922550329.544396</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1225995810878471</v>
+        <v>0.1246654580226797</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02834148390572662</v>
+        <v>0.02833241847192809</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>154</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2760117852.236053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2036224126.575596</v>
+        <v>1710525164.389002</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08649699130786913</v>
+        <v>0.07172073233704196</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05219308720218246</v>
+        <v>0.05228079453107608</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1018112003.778663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2283273548.024088</v>
+        <v>2249322549.69594</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08566570110448801</v>
+        <v>0.08744422720337225</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04285403551282688</v>
+        <v>0.04243569060661649</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>161</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1141636835.632373</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3556876547.232422</v>
+        <v>3008726292.069181</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1476133670278017</v>
+        <v>0.1340790023903669</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03503119388141097</v>
+        <v>0.02250724471693508</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>145</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1778438290.885022</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2240247148.261351</v>
+        <v>1592374454.562075</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1521332574016485</v>
+        <v>0.1549925410125383</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02780965052023059</v>
+        <v>0.03035882514389654</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1120123515.779929</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4069425355.09881</v>
+        <v>4696522279.085827</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1060986713624452</v>
+        <v>0.09366771921046727</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02424832990280181</v>
+        <v>0.02817786371653477</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>100</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2034712665.16934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1658912861.601943</v>
+        <v>2024648199.027512</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1252617027193312</v>
+        <v>0.1771958465759847</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02151546570199512</v>
+        <v>0.02990141953173067</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>829456441.9654416</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3881508249.548212</v>
+        <v>4140082210.738568</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08717247919705171</v>
+        <v>0.09023415156427587</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05415727737180261</v>
+        <v>0.04363941244901976</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>147</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1940754098.983231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1514552407.030467</v>
+        <v>1572602395.878204</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1618527996026973</v>
+        <v>0.1615472420283179</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03650828855858117</v>
+        <v>0.03933480103378603</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>757276240.3047544</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4019204722.941007</v>
+        <v>5107794965.768141</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08114720843568383</v>
+        <v>0.07396801615739107</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0352662762762831</v>
+        <v>0.02668159118929115</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2009602361.910368</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4468699377.011933</v>
+        <v>4923159069.574139</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08764733415376587</v>
+        <v>0.09691223440345847</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02372685295425378</v>
+        <v>0.02001288387447413</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2234349669.118989</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5362908258.34584</v>
+        <v>4165699133.588836</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2055365767199883</v>
+        <v>0.1818214940968295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02746583488237476</v>
+        <v>0.02078858151890034</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>148</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2681454092.901809</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1763870401.040327</v>
+        <v>2195423070.058966</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1384581216432099</v>
+        <v>0.1090885055642585</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03319751500936235</v>
+        <v>0.03649371849964272</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>881935156.4875016</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2209056739.702343</v>
+        <v>1835237721.463842</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1075449082283014</v>
+        <v>0.08775142977709394</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03829168494073597</v>
+        <v>0.03594430448967902</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1104528344.245103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2370114960.694222</v>
+        <v>3314462073.864295</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1271159078345308</v>
+        <v>0.1250768115085362</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03536561861712176</v>
+        <v>0.04349691459954097</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>160</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1185057470.963629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1833912304.107001</v>
+        <v>1956848360.132825</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1221299468970265</v>
+        <v>0.1144075608594138</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0166695033628993</v>
+        <v>0.01688386081755016</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>916956156.5998909</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1407010591.771842</v>
+        <v>1325650998.86311</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1224121018579669</v>
+        <v>0.1170480099569976</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03034529735768892</v>
+        <v>0.03595976899373659</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>703505404.5341157</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3586298725.84936</v>
+        <v>3176347149.079659</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1236818553987516</v>
+        <v>0.1352872187420583</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02479037150524128</v>
+        <v>0.03455745422147329</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>168</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1793149451.344968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2203366496.043791</v>
+        <v>2569749997.556654</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1039571008948835</v>
+        <v>0.1399056694976983</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03353368474976638</v>
+        <v>0.03008333402067539</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>142</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1101683344.534927</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1895172863.256348</v>
+        <v>1754005247.221626</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1318846946612938</v>
+        <v>0.1152188378692752</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05458848325943205</v>
+        <v>0.05226437423671935</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>947586482.6874739</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1641955902.048394</v>
+        <v>1581021434.349949</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1303339004627867</v>
+        <v>0.1568181026668797</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05555479840704824</v>
+        <v>0.04224493202402638</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>820977971.0614525</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2658175117.839471</v>
+        <v>2024398651.43711</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09596413231815529</v>
+        <v>0.07253314609280122</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03385864131136954</v>
+        <v>0.03138094074012382</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>120</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1329087554.828075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4573437555.182172</v>
+        <v>4996001663.079799</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1342562084051473</v>
+        <v>0.106266590847336</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05197166939928689</v>
+        <v>0.05173606062793267</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>131</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2286718741.160465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1896183375.658207</v>
+        <v>2485389287.718838</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1219028535397474</v>
+        <v>0.1233786661019333</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02837251240104388</v>
+        <v>0.04088611563777782</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>948091672.6698875</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3050814295.374657</v>
+        <v>2499262354.989318</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1167551895271389</v>
+        <v>0.1324030046817315</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0405286145294587</v>
+        <v>0.04004681556457153</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>103</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1525407143.730263</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1898011767.65863</v>
+        <v>1741348325.188184</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1287954258134902</v>
+        <v>0.08524829055791273</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03012487356523223</v>
+        <v>0.04523519767502452</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>949005881.7286556</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4217788300.789499</v>
+        <v>4122970663.968581</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1671896916271482</v>
+        <v>0.1486144467854372</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02307089435895793</v>
+        <v>0.02289828998241546</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>137</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2108894224.306216</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2437526632.509425</v>
+        <v>3453611709.054005</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1144969833053405</v>
+        <v>0.1183215413083755</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02793596719210581</v>
+        <v>0.0261409800950033</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>112</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1218763262.815764</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2383837555.218588</v>
+        <v>2292965717.889403</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1063097738982394</v>
+        <v>0.1469647831882289</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03392178794223284</v>
+        <v>0.03340516095406905</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>134</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1191918718.941822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4269402932.029101</v>
+        <v>4327910460.355853</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1611324507802614</v>
+        <v>0.1509409198838407</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02551227032948108</v>
+        <v>0.02084205657554827</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2134701558.218004</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3021618190.50704</v>
+        <v>2324288270.456841</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1457688451183508</v>
+        <v>0.1939689785340146</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04990150725818624</v>
+        <v>0.03794280068654195</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>172</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1510809187.189015</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_425.xlsx
+++ b/output/fit_clients/fit_round_425.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1721481849.673853</v>
+        <v>2391565933.093512</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07237128100462362</v>
+        <v>0.09978535447568918</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03215978925058286</v>
+        <v>0.03397041489340142</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2495911762.745811</v>
+        <v>2123500314.655596</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1646237365325263</v>
+        <v>0.1167407976433853</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03717231699973706</v>
+        <v>0.03490564489284653</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3517555806.442435</v>
+        <v>4743963245.872699</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1588020077025979</v>
+        <v>0.1051705689184796</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02311114951118238</v>
+        <v>0.02956534324773142</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3460660704.353129</v>
+        <v>3371253297.927872</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0859770899144536</v>
+        <v>0.08791272603865233</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0440858135718413</v>
+        <v>0.03296554205330041</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2325465931.410612</v>
+        <v>2160446260.337534</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0996217170711374</v>
+        <v>0.1207350859853941</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0550256765521572</v>
+        <v>0.0404896914451808</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2554157592.732517</v>
+        <v>2356083486.512013</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07623614703629558</v>
+        <v>0.08725919441507939</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04877219235148198</v>
+        <v>0.03400478396688127</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3349415808.114213</v>
+        <v>3671849146.763474</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489969510507989</v>
+        <v>0.1859045154217702</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03038340313376296</v>
+        <v>0.03066754340030181</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1892653730.67236</v>
+        <v>1615957504.911699</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1365407187475417</v>
+        <v>0.1783304294531654</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02916349081830491</v>
+        <v>0.0292501274454846</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5146729791.516304</v>
+        <v>4606317760.876345</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1744174783464766</v>
+        <v>0.1650521241245839</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05252594244646357</v>
+        <v>0.03626582821014994</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4137218669.521678</v>
+        <v>3619426494.987313</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1208772373990216</v>
+        <v>0.1491162836381419</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03716430650456455</v>
+        <v>0.03954049567115358</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2542809294.68663</v>
+        <v>2393219095.433095</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1459966931771463</v>
+        <v>0.1336628533869761</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0383699673489485</v>
+        <v>0.03497923692548367</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4040552236.056504</v>
+        <v>5300338108.682029</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07060752040171299</v>
+        <v>0.09959878526570885</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02133888985405065</v>
+        <v>0.01908100389788207</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2561093860.044714</v>
+        <v>2919716871.545655</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1549360280478606</v>
+        <v>0.1593131028104966</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03691668744453883</v>
+        <v>0.0276492321085528</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1758065141.706974</v>
+        <v>1624600579.54495</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0747980985751652</v>
+        <v>0.07367066023635972</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04522500353265229</v>
+        <v>0.03973054669625473</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1940714065.020011</v>
+        <v>2648089971.156142</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07016816071037064</v>
+        <v>0.1093376026134271</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03662906622181122</v>
+        <v>0.04504466385282885</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3958075250.212439</v>
+        <v>4562639141.725904</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1526524600323807</v>
+        <v>0.1737988289506169</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0512140801351768</v>
+        <v>0.03300945066541103</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2822891190.649909</v>
+        <v>3844178644.937583</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1729294546452279</v>
+        <v>0.166328298597968</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02112952723958182</v>
+        <v>0.02389503918130882</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>931652611.2973527</v>
+        <v>902423535.7621648</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1171721357422674</v>
+        <v>0.1236648880184495</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0252031706096097</v>
+        <v>0.0166765316605956</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2735083617.041857</v>
+        <v>2660554259.186332</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1180603977545817</v>
+        <v>0.1088283017111869</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02577439618324303</v>
+        <v>0.02891105031551609</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1773154398.794064</v>
+        <v>1684720009.025314</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1010045324521322</v>
+        <v>0.07465045916582226</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03849009517992712</v>
+        <v>0.04115422478598119</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2674373541.763841</v>
+        <v>3722456072.385134</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09474568058286507</v>
+        <v>0.0917722755001138</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03700196062218979</v>
+        <v>0.05681128209137967</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1151781700.397168</v>
+        <v>1345726911.980238</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1194505840434096</v>
+        <v>0.1849841383411785</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03417477586267236</v>
+        <v>0.03976335570698566</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3292137396.962898</v>
+        <v>3372886403.151896</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1289446218516966</v>
+        <v>0.0946462336657483</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03418831029651122</v>
+        <v>0.03505602562202583</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>990278126.0639091</v>
+        <v>1006230484.030955</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08092235703140936</v>
+        <v>0.08369663838484329</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02453207713676976</v>
+        <v>0.02064853900872341</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1181422817.075456</v>
+        <v>1445406963.555305</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1026358291605605</v>
+        <v>0.09853622695510246</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03622354286234362</v>
+        <v>0.02622895561346685</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3360503338.586109</v>
+        <v>2903793448.221331</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1516820121664026</v>
+        <v>0.1280501612841068</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02309587541245934</v>
+        <v>0.02196832981536578</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2533228589.667217</v>
+        <v>3890050183.340856</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1385860120787593</v>
+        <v>0.1457824135145234</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04088903997838303</v>
+        <v>0.04379499206815951</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5343562550.401291</v>
+        <v>3824682676.696839</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09513553013193252</v>
+        <v>0.0975101440854587</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03624450711158719</v>
+        <v>0.02951190358566718</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2258532167.16729</v>
+        <v>2408636718.151868</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1286966302670027</v>
+        <v>0.1079462814693155</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03735851851965379</v>
+        <v>0.0299666483944419</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1027873765.597165</v>
+        <v>1416625040.321779</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1013205873777143</v>
+        <v>0.1050478307822439</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0428891475877889</v>
+        <v>0.04185754066561317</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1401792432.790343</v>
+        <v>1585372615.242781</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09164263855158263</v>
+        <v>0.1035687907711002</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03000635957638969</v>
+        <v>0.03704638321779203</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2289845334.547808</v>
+        <v>2345908536.13404</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1724885140265684</v>
+        <v>0.1341918205930432</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05581246884965108</v>
+        <v>0.05448276914250509</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1527812219.321035</v>
+        <v>986978689.0889814</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08103027972325948</v>
+        <v>0.08704664517455817</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02531341177819367</v>
+        <v>0.01721261661992803</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1117381974.143236</v>
+        <v>1319883988.081169</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09155093650042695</v>
+        <v>0.08685657825797083</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04123896948264625</v>
+        <v>0.04310151464215481</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2231019684.775076</v>
+        <v>2826220301.944664</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1127375066052678</v>
+        <v>0.1670571803414738</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02066987510003737</v>
+        <v>0.01977729474578075</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2006141125.622446</v>
+        <v>2453196615.216895</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06843330321160447</v>
+        <v>0.08773863319122734</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03648042623389985</v>
+        <v>0.0376010923432571</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1673902493.916631</v>
+        <v>2143159408.248932</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1190015789987591</v>
+        <v>0.09399134529191318</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02775594370461215</v>
+        <v>0.02672565709075278</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1653975810.899261</v>
+        <v>2172717478.342797</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1428768150200749</v>
+        <v>0.12214910881655</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02088733386352434</v>
+        <v>0.03058493582412841</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1439437611.368563</v>
+        <v>1248322997.028742</v>
       </c>
       <c r="F40" t="n">
-        <v>0.14904010680492</v>
+        <v>0.1297450033253875</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0399113205032775</v>
+        <v>0.05810614365598445</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2526589109.619867</v>
+        <v>2117301341.14015</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1654456225948314</v>
+        <v>0.1143967547052588</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04178550548728079</v>
+        <v>0.0368446217447901</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3180297833.706726</v>
+        <v>2972013786.294454</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09809048325011836</v>
+        <v>0.1247197727501892</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02972557632730054</v>
+        <v>0.03315582733814092</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2649560666.996081</v>
+        <v>1890714313.000185</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1543994910982276</v>
+        <v>0.2043805430893522</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02089517675900331</v>
+        <v>0.02479068857437697</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2202847622.427983</v>
+        <v>1971194842.665801</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06557690665461564</v>
+        <v>0.07516132949307175</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03520966256582083</v>
+        <v>0.03051930457673471</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2477204299.977181</v>
+        <v>2353861935.475079</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1691272672001778</v>
+        <v>0.1420795445489837</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03574204109226631</v>
+        <v>0.05273563497778932</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4988070487.181202</v>
+        <v>3938477751.83591</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1381999610105952</v>
+        <v>0.1353814292251351</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06052044139030624</v>
+        <v>0.04344014762404651</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4560639154.562115</v>
+        <v>3926043316.290147</v>
       </c>
       <c r="F47" t="n">
-        <v>0.131983074607569</v>
+        <v>0.1388284802081552</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05521577313134714</v>
+        <v>0.04728205983861346</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3640015125.11252</v>
+        <v>3583681452.367785</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09682396468901429</v>
+        <v>0.1024717231305476</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03300192557722097</v>
+        <v>0.03667632754320464</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1756122615.124272</v>
+        <v>1518864916.707549</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1528499949019788</v>
+        <v>0.1574213492082613</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04141713714613317</v>
+        <v>0.03561040998297056</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3271268621.372837</v>
+        <v>3225194992.266833</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1568945787180695</v>
+        <v>0.1448481600163039</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04943362711389295</v>
+        <v>0.03904151359275862</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1417124573.597291</v>
+        <v>948995969.1018215</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1694781454979825</v>
+        <v>0.1759938477808032</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03356697756557896</v>
+        <v>0.0358342925568556</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3356353540.737035</v>
+        <v>5196458382.593185</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08436848305497352</v>
+        <v>0.1057092687175597</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04320724628077147</v>
+        <v>0.05832342352648548</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2831727963.570634</v>
+        <v>2550445805.937211</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1754849334136768</v>
+        <v>0.1636185566997849</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02164130350956068</v>
+        <v>0.02509286279737249</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4832890522.466605</v>
+        <v>3644442411.13721</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1678311457591854</v>
+        <v>0.1230343832176784</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03759468869802608</v>
+        <v>0.04826336406272291</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4361191224.223053</v>
+        <v>4731712515.196277</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1602554582188455</v>
+        <v>0.2164038094561793</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02674099483337713</v>
+        <v>0.02634562197186754</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1762554066.409415</v>
+        <v>1430897188.493223</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09981560022251616</v>
+        <v>0.1135525572889837</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05193402141003475</v>
+        <v>0.04796657955045837</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3872494356.577693</v>
+        <v>2812357575.323172</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1499664947157748</v>
+        <v>0.1566335704808282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02070954720577017</v>
+        <v>0.01968239984996989</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1263141884.216172</v>
+        <v>1404057585.649248</v>
       </c>
       <c r="F58" t="n">
-        <v>0.133170979895713</v>
+        <v>0.1410503509845922</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02648114097566193</v>
+        <v>0.03281176288847959</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4738511718.721015</v>
+        <v>4713112587.050691</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07927745006750136</v>
+        <v>0.08944923660633987</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03457407800248062</v>
+        <v>0.0435458661838574</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3704565696.263261</v>
+        <v>2860070443.803573</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1268984191778897</v>
+        <v>0.165369247041447</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02332279060159106</v>
+        <v>0.02559322036669584</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3176235326.869604</v>
+        <v>2458899371.066967</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1773565795709487</v>
+        <v>0.1436273515616707</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02275594787564773</v>
+        <v>0.02956093289726886</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1661821901.336704</v>
+        <v>1368481186.62931</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1762374233357424</v>
+        <v>0.1950517473273147</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04470222281995271</v>
+        <v>0.03650882619100578</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3709813905.278014</v>
+        <v>4355122038.215093</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09405606158006452</v>
+        <v>0.097151581739735</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03389055570148535</v>
+        <v>0.03080080831606258</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4769614497.652924</v>
+        <v>4865246196.351166</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1210764011844499</v>
+        <v>0.1685507263143965</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02790042936720018</v>
+        <v>0.02532609816130374</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5630017976.25416</v>
+        <v>5784971394.431955</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1352752748629369</v>
+        <v>0.1658447690671337</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02132539345551106</v>
+        <v>0.0206760761443502</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4383006774.455413</v>
+        <v>4377506220.333763</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1004458996612203</v>
+        <v>0.1222071893020089</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0311142651544323</v>
+        <v>0.04565668230788082</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2961153840.127043</v>
+        <v>2529413379.951739</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07175670692391975</v>
+        <v>0.07003176800059964</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0462983551627255</v>
+        <v>0.03715114658333875</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4269785292.161687</v>
+        <v>5368894697.526566</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1522704825928812</v>
+        <v>0.1603488445509357</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0453506952463508</v>
+        <v>0.03187730264568518</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2074415354.017509</v>
+        <v>1599177045.054857</v>
       </c>
       <c r="F69" t="n">
-        <v>0.118956211543217</v>
+        <v>0.1420466007943712</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04483565303336677</v>
+        <v>0.04584760170251314</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3608376628.521018</v>
+        <v>3568608516.12673</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07372299020952851</v>
+        <v>0.07099419063547298</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03011338916954853</v>
+        <v>0.04853535664354505</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4922550329.544396</v>
+        <v>4565900777.572364</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1246654580226797</v>
+        <v>0.1311151014995012</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02833241847192809</v>
+        <v>0.02982096369533971</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1710525164.389002</v>
+        <v>2085412633.048482</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07172073233704196</v>
+        <v>0.071320653241964</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05228079453107608</v>
+        <v>0.03459890509277291</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2249322549.69594</v>
+        <v>3482501080.353228</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08744422720337225</v>
+        <v>0.08897136682892338</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04243569060661649</v>
+        <v>0.03590454530772525</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3008726292.069181</v>
+        <v>3642085221.60757</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1340790023903669</v>
+        <v>0.1642254438775585</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02250724471693508</v>
+        <v>0.02369117593168193</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1592374454.562075</v>
+        <v>2093665556.34517</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1549925410125383</v>
+        <v>0.1541769065035869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03035882514389654</v>
+        <v>0.03558753078188021</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4696522279.085827</v>
+        <v>4442120548.040887</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09366771921046727</v>
+        <v>0.120333998570074</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02817786371653477</v>
+        <v>0.02578166632569239</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2024648199.027512</v>
+        <v>1526615951.353272</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1771958465759847</v>
+        <v>0.1519320233808066</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02990141953173067</v>
+        <v>0.02449972760637669</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4140082210.738568</v>
+        <v>3907876838.394115</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09023415156427587</v>
+        <v>0.1238929752161319</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04363941244901976</v>
+        <v>0.04775095213754589</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1572602395.878204</v>
+        <v>1429721778.570959</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1615472420283179</v>
+        <v>0.1653847660988272</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03933480103378603</v>
+        <v>0.03785869843164366</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5107794965.768141</v>
+        <v>3961298539.993071</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07396801615739107</v>
+        <v>0.07175323074420825</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02668159118929115</v>
+        <v>0.02929888026974188</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4923159069.574139</v>
+        <v>5167669305.226509</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09691223440345847</v>
+        <v>0.1189991819033823</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02001288387447413</v>
+        <v>0.03057665186958744</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4165699133.588836</v>
+        <v>5262359781.891577</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1818214940968295</v>
+        <v>0.1934619274173785</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02078858151890034</v>
+        <v>0.02505687667361453</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2195423070.058966</v>
+        <v>2115687523.850436</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1090885055642585</v>
+        <v>0.127298498405449</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03649371849964272</v>
+        <v>0.03408017580800988</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1835237721.463842</v>
+        <v>2182598598.798789</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08775142977709394</v>
+        <v>0.1015786403630875</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03594430448967902</v>
+        <v>0.03795973576858053</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3314462073.864295</v>
+        <v>3493305111.758169</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1250768115085362</v>
+        <v>0.1196266072235057</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04349691459954097</v>
+        <v>0.03635641444170641</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1956848360.132825</v>
+        <v>1960244805.840409</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1144075608594138</v>
+        <v>0.1291110075392667</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01688386081755016</v>
+        <v>0.02088919567299843</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1325650998.86311</v>
+        <v>1168979689.469447</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1170480099569976</v>
+        <v>0.1823967811474344</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03595976899373659</v>
+        <v>0.03485168982438415</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3176347149.079659</v>
+        <v>2489530456.934419</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1352872187420583</v>
+        <v>0.16946209358591</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03455745422147329</v>
+        <v>0.02927213172966725</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2569749997.556654</v>
+        <v>2803387245.751126</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1399056694976983</v>
+        <v>0.1534007695958559</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03008333402067539</v>
+        <v>0.03013227965046729</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1754005247.221626</v>
+        <v>1835571940.145865</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1152188378692752</v>
+        <v>0.09880000430079114</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05226437423671935</v>
+        <v>0.04624125878270489</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1581021434.349949</v>
+        <v>1509941809.399745</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1568181026668797</v>
+        <v>0.138066993519539</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04224493202402638</v>
+        <v>0.05452656359535701</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2024398651.43711</v>
+        <v>2754280534.18076</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07253314609280122</v>
+        <v>0.07588473329366793</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03138094074012382</v>
+        <v>0.03507666457944659</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4996001663.079799</v>
+        <v>3974772865.633839</v>
       </c>
       <c r="F93" t="n">
-        <v>0.106266590847336</v>
+        <v>0.09967685023186883</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05173606062793267</v>
+        <v>0.05406945767462269</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2485389287.718838</v>
+        <v>1958679519.458685</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1233786661019333</v>
+        <v>0.1189498349725864</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04088611563777782</v>
+        <v>0.04076753705791317</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2499262354.989318</v>
+        <v>2011590395.933882</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1324030046817315</v>
+        <v>0.09966958673014861</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04004681556457153</v>
+        <v>0.04118067946132085</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1741348325.188184</v>
+        <v>2061294661.560059</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08524829055791273</v>
+        <v>0.1044375345653561</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04523519767502452</v>
+        <v>0.04066745267246814</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4122970663.968581</v>
+        <v>4135827031.489024</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1486144467854372</v>
+        <v>0.14803917554875</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02289828998241546</v>
+        <v>0.02458030141005545</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3453611709.054005</v>
+        <v>2595082583.223352</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1183215413083755</v>
+        <v>0.1239258452334133</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0261409800950033</v>
+        <v>0.024209150133554</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2292965717.889403</v>
+        <v>2527003161.018288</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1469647831882289</v>
+        <v>0.1038811795384017</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03340516095406905</v>
+        <v>0.02286962166875024</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4327910460.355853</v>
+        <v>3844972839.715335</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1509409198838407</v>
+        <v>0.143950268852911</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02084205657554827</v>
+        <v>0.02027012119535239</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2324288270.456841</v>
+        <v>3265451499.909684</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1939689785340146</v>
+        <v>0.1616206250368795</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03794280068654195</v>
+        <v>0.05764995580035847</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_425.xlsx
+++ b/output/fit_clients/fit_round_425.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2391565933.093512</v>
+        <v>2000309775.246929</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09978535447568918</v>
+        <v>0.08305516411714145</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03397041489340142</v>
+        <v>0.0353960418597086</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2123500314.655596</v>
+        <v>2145132860.065533</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1167407976433853</v>
+        <v>0.1744562071649072</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03490564489284653</v>
+        <v>0.04497753246235336</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4743963245.872699</v>
+        <v>3361131947.614112</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1051705689184796</v>
+        <v>0.1311484187844609</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02956534324773142</v>
+        <v>0.0251827921908167</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>216</v>
+      </c>
+      <c r="J4" t="n">
+        <v>424</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29.94120915116484</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3371253297.927872</v>
+        <v>3401688403.739365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08791272603865233</v>
+        <v>0.07310022541313056</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03296554205330041</v>
+        <v>0.04465448298682639</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>174</v>
+      </c>
+      <c r="J5" t="n">
+        <v>422</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2160446260.337534</v>
+        <v>2416257590.598629</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1207350859853941</v>
+        <v>0.1482532999022957</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0404896914451808</v>
+        <v>0.05642113957455213</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2356083486.512013</v>
+        <v>2438766814.754083</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08725919441507939</v>
+        <v>0.07843632021373555</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03400478396688127</v>
+        <v>0.03878732446256577</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3671849146.763474</v>
+        <v>3213567230.062903</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1859045154217702</v>
+        <v>0.1596333391838672</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03066754340030181</v>
+        <v>0.02789288112854649</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>114</v>
+      </c>
+      <c r="J8" t="n">
+        <v>422</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1615957504.911699</v>
+        <v>1506062602.018082</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1783304294531654</v>
+        <v>0.1379235418447394</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0292501274454846</v>
+        <v>0.02474105309164744</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4606317760.876345</v>
+        <v>5213140514.393649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1650521241245839</v>
+        <v>0.131455706709074</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03626582821014994</v>
+        <v>0.03848161419311052</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>337</v>
+      </c>
+      <c r="J10" t="n">
+        <v>425</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3619426494.987313</v>
+        <v>3308361924.957825</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1491162836381419</v>
+        <v>0.1273610380216138</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03954049567115358</v>
+        <v>0.04013461143247891</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>177</v>
+      </c>
+      <c r="J11" t="n">
+        <v>424</v>
+      </c>
+      <c r="K11" t="n">
+        <v>35.53679074713562</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2393219095.433095</v>
+        <v>3027628520.368241</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1336628533869761</v>
+        <v>0.1357922803728452</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03497923692548367</v>
+        <v>0.04342195793591571</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5300338108.682029</v>
+        <v>3692842629.930583</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09959878526570885</v>
+        <v>0.08009674838119657</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01908100389788207</v>
+        <v>0.02848218426984244</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>222</v>
+      </c>
+      <c r="J13" t="n">
+        <v>425</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2919716871.545655</v>
+        <v>3758191993.537451</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1593131028104966</v>
+        <v>0.1476548792137206</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0276492321085528</v>
+        <v>0.02975037350458046</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>90</v>
+      </c>
+      <c r="J14" t="n">
+        <v>425</v>
+      </c>
+      <c r="K14" t="n">
+        <v>60.91642184473685</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1624600579.54495</v>
+        <v>1109986173.847037</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07367066023635972</v>
+        <v>0.1077383508588151</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03973054669625473</v>
+        <v>0.04155006581988396</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2648089971.156142</v>
+        <v>2495890583.591581</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1093376026134271</v>
+        <v>0.1045207929260396</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04504466385282885</v>
+        <v>0.04359991756117483</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4562639141.725904</v>
+        <v>3849535613.56976</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1737988289506169</v>
+        <v>0.1088187536180337</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03300945066541103</v>
+        <v>0.0446436063573986</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>206</v>
+      </c>
+      <c r="J17" t="n">
+        <v>425</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1067,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3844178644.937583</v>
+        <v>3239024631.518898</v>
       </c>
       <c r="F18" t="n">
-        <v>0.166328298597968</v>
+        <v>0.1628472076119479</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02389503918130882</v>
+        <v>0.0231426974211732</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>110</v>
+      </c>
+      <c r="J18" t="n">
+        <v>424</v>
+      </c>
+      <c r="K18" t="n">
+        <v>37.26203838155289</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>902423535.7621648</v>
+        <v>1318230437.849006</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1236648880184495</v>
+        <v>0.1278078067893012</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0166765316605956</v>
+        <v>0.02036785945326803</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2660554259.186332</v>
+        <v>2707164651.660391</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1088283017111869</v>
+        <v>0.1007113181663847</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02891105031551609</v>
+        <v>0.01923232355310268</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1684720009.025314</v>
+        <v>2393426745.22158</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07465045916582226</v>
+        <v>0.06349929917485359</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04115422478598119</v>
+        <v>0.03750793833186697</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3722456072.385134</v>
+        <v>2738108014.617282</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0917722755001138</v>
+        <v>0.1447335920256983</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05681128209137967</v>
+        <v>0.05286587171793997</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>120</v>
+      </c>
+      <c r="J22" t="n">
+        <v>424</v>
+      </c>
+      <c r="K22" t="n">
+        <v>27.13967510689945</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1345726911.980238</v>
+        <v>1071567093.665289</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1849841383411785</v>
+        <v>0.1476350718636847</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03976335570698566</v>
+        <v>0.04175328629959565</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3372886403.151896</v>
+        <v>3864087283.453649</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0946462336657483</v>
+        <v>0.1453449660471591</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03505602562202583</v>
+        <v>0.03510153236562302</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>134</v>
+      </c>
+      <c r="J24" t="n">
+        <v>425</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1006230484.030955</v>
+        <v>1328122034.939212</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08369663838484329</v>
+        <v>0.0883275715019378</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02064853900872341</v>
+        <v>0.02013801495753923</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1445406963.555305</v>
+        <v>1086733629.464714</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09853622695510246</v>
+        <v>0.1045875671133697</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02622895561346685</v>
+        <v>0.02724115604211116</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2903793448.221331</v>
+        <v>3917033180.806206</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1280501612841068</v>
+        <v>0.1157602271829996</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02196832981536578</v>
+        <v>0.02200020608725035</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>181</v>
+      </c>
+      <c r="J27" t="n">
+        <v>425</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3890050183.340856</v>
+        <v>2512512834.28665</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1457824135145234</v>
+        <v>0.1021796088297531</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04379499206815951</v>
+        <v>0.03330890377613192</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>105</v>
+      </c>
+      <c r="J28" t="n">
+        <v>423</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3824682676.696839</v>
+        <v>5597020943.012156</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0975101440854587</v>
+        <v>0.0998365114197839</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02951190358566718</v>
+        <v>0.04036626530986659</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>353</v>
+      </c>
+      <c r="J29" t="n">
+        <v>425</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2408636718.151868</v>
+        <v>1644315267.960514</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1079462814693155</v>
+        <v>0.1161700923436201</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0299666483944419</v>
+        <v>0.02576092129704755</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1416625040.321779</v>
+        <v>1133783804.679677</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1050478307822439</v>
+        <v>0.07835808436321175</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04185754066561317</v>
+        <v>0.03781291232797291</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1585372615.242781</v>
+        <v>1653675671.623686</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1035687907711002</v>
+        <v>0.1057965597431116</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03704638321779203</v>
+        <v>0.02538704591400048</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2345908536.13404</v>
+        <v>2586660122.175621</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1341918205930432</v>
+        <v>0.1821072460663669</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05448276914250509</v>
+        <v>0.03820512813986855</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>986978689.0889814</v>
+        <v>1250931767.884063</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08704664517455817</v>
+        <v>0.1196518539726463</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01721261661992803</v>
+        <v>0.02256906053098709</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1319883988.081169</v>
+        <v>1032282821.834595</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08685657825797083</v>
+        <v>0.07116488415917219</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04310151464215481</v>
+        <v>0.02870446522442538</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2826220301.944664</v>
+        <v>2683526501.831831</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1670571803414738</v>
+        <v>0.1365042355828935</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01977729474578075</v>
+        <v>0.0201986581854642</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2453196615.216895</v>
+        <v>1787425382.929801</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08773863319122734</v>
+        <v>0.0715103505791973</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0376010923432571</v>
+        <v>0.0279258266510882</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2143159408.248932</v>
+        <v>2067117118.587447</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09399134529191318</v>
+        <v>0.1033536887280432</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02672565709075278</v>
+        <v>0.02745705189881669</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2172717478.342797</v>
+        <v>1956767027.174519</v>
       </c>
       <c r="F39" t="n">
-        <v>0.12214910881655</v>
+        <v>0.1821602540426359</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03058493582412841</v>
+        <v>0.02627567143161004</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1248322997.028742</v>
+        <v>1594384087.510727</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1297450033253875</v>
+        <v>0.1378643134055524</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05810614365598445</v>
+        <v>0.04052297426972293</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2117301341.14015</v>
+        <v>2817929503.56116</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1143967547052588</v>
+        <v>0.1123913972605106</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0368446217447901</v>
+        <v>0.03686982566661513</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2972013786.294454</v>
+        <v>3257880796.576636</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1247197727501892</v>
+        <v>0.09217519242752865</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03315582733814092</v>
+        <v>0.03096994742094986</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>182</v>
+      </c>
+      <c r="J42" t="n">
+        <v>424</v>
+      </c>
+      <c r="K42" t="n">
+        <v>35.84552156816656</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1890714313.000185</v>
+        <v>2958250525.968621</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2043805430893522</v>
+        <v>0.1770290927559284</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02479068857437697</v>
+        <v>0.02386168736238375</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1971194842.665801</v>
+        <v>1709453169.040632</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07516132949307175</v>
+        <v>0.08770549485024796</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03051930457673471</v>
+        <v>0.03341932254810951</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2353861935.475079</v>
+        <v>2314844673.768393</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1420795445489837</v>
+        <v>0.1791906118988195</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05273563497778932</v>
+        <v>0.03853925285074099</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3938477751.83591</v>
+        <v>5314586772.565142</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1353814292251351</v>
+        <v>0.1746958418988223</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04344014762404651</v>
+        <v>0.04805151495800936</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>254</v>
+      </c>
+      <c r="J46" t="n">
+        <v>424</v>
+      </c>
+      <c r="K46" t="n">
+        <v>40.30908981093285</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3926043316.290147</v>
+        <v>3223611921.662899</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1388284802081552</v>
+        <v>0.1781690216600778</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04728205983861346</v>
+        <v>0.04428383468779457</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>190</v>
+      </c>
+      <c r="J47" t="n">
+        <v>423</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3583681452.367785</v>
+        <v>3653547092.118902</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1024717231305476</v>
+        <v>0.09965523109779216</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03667632754320464</v>
+        <v>0.03852647660214657</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>217</v>
+      </c>
+      <c r="J48" t="n">
+        <v>425</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1518864916.707549</v>
+        <v>1664484356.537094</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1574213492082613</v>
+        <v>0.1620317378055409</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03561040998297056</v>
+        <v>0.03350926138041464</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3225194992.266833</v>
+        <v>4034664651.541224</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1448481600163039</v>
+        <v>0.1512492979628585</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03904151359275862</v>
+        <v>0.03712232056022152</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>146</v>
+      </c>
+      <c r="J50" t="n">
+        <v>425</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>948995969.1018215</v>
+        <v>1060933980.556388</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1759938477808032</v>
+        <v>0.1865558342850458</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0358342925568556</v>
+        <v>0.05116425340909923</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5196458382.593185</v>
+        <v>3647307619.966519</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1057092687175597</v>
+        <v>0.1243034529206936</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05832342352648548</v>
+        <v>0.05247688398650537</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>244</v>
+      </c>
+      <c r="J52" t="n">
+        <v>425</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2550445805.937211</v>
+        <v>2871777956.303464</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1636185566997849</v>
+        <v>0.1384083583676723</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02509286279737249</v>
+        <v>0.0230045680046373</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>63</v>
+      </c>
+      <c r="J53" t="n">
+        <v>424</v>
+      </c>
+      <c r="K53" t="n">
+        <v>35.68873496150301</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3644442411.13721</v>
+        <v>4869203360.131756</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1230343832176784</v>
+        <v>0.1167612850698959</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04826336406272291</v>
+        <v>0.0413747160887297</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>227</v>
+      </c>
+      <c r="J54" t="n">
+        <v>425</v>
+      </c>
+      <c r="K54" t="n">
+        <v>41.45710669071364</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4731712515.196277</v>
+        <v>3658764152.503803</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2164038094561793</v>
+        <v>0.1960827137498492</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02634562197186754</v>
+        <v>0.03081112386381567</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>210</v>
+      </c>
+      <c r="J55" t="n">
+        <v>425</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1430897188.493223</v>
+        <v>1692895728.096138</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1135525572889837</v>
+        <v>0.1295872337516783</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04796657955045837</v>
+        <v>0.05526030438584952</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2812357575.323172</v>
+        <v>3704222560.373352</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1566335704808282</v>
+        <v>0.1440464500019607</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01968239984996989</v>
+        <v>0.01903336636265119</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>185</v>
+      </c>
+      <c r="J57" t="n">
+        <v>424</v>
+      </c>
+      <c r="K57" t="n">
+        <v>36.58383783513109</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1404057585.649248</v>
+        <v>1398597021.844096</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1410503509845922</v>
+        <v>0.1495412891389431</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03281176288847959</v>
+        <v>0.02989941367514092</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4713112587.050691</v>
+        <v>4693675275.414976</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08944923660633987</v>
+        <v>0.108421009655666</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0435458661838574</v>
+        <v>0.04129708964283786</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>207</v>
+      </c>
+      <c r="J59" t="n">
+        <v>425</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2860070443.803573</v>
+        <v>3415928593.235104</v>
       </c>
       <c r="F60" t="n">
-        <v>0.165369247041447</v>
+        <v>0.1936615348612551</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02559322036669584</v>
+        <v>0.02538180923545577</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>420</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2458899371.066967</v>
+        <v>3226341356.646354</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1436273515616707</v>
+        <v>0.1485704786170669</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02956093289726886</v>
+        <v>0.02411459147265283</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1368481186.62931</v>
+        <v>1641915489.968531</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1950517473273147</v>
+        <v>0.1433940099516221</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03650882619100578</v>
+        <v>0.03835507997292278</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4355122038.215093</v>
+        <v>3900802194.223072</v>
       </c>
       <c r="F63" t="n">
-        <v>0.097151581739735</v>
+        <v>0.06773252758747429</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03080080831606258</v>
+        <v>0.03193531257631708</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>212</v>
+      </c>
+      <c r="J63" t="n">
+        <v>424</v>
+      </c>
+      <c r="K63" t="n">
+        <v>40.1904624408297</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4865246196.351166</v>
+        <v>4778211005.567422</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1685507263143965</v>
+        <v>0.1378369429114405</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02532609816130374</v>
+        <v>0.03304847757723477</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>213</v>
+      </c>
+      <c r="J64" t="n">
+        <v>424</v>
+      </c>
+      <c r="K64" t="n">
+        <v>40.11346128043177</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5784971394.431955</v>
+        <v>4982277393.025521</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1658447690671337</v>
+        <v>0.133119197779019</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0206760761443502</v>
+        <v>0.01964815582842541</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>310</v>
+      </c>
+      <c r="J65" t="n">
+        <v>424</v>
+      </c>
+      <c r="K65" t="n">
+        <v>39.05864836565899</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4377506220.333763</v>
+        <v>5321191994.94005</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1222071893020089</v>
+        <v>0.1481034677879642</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04565668230788082</v>
+        <v>0.04593825817120929</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>209</v>
+      </c>
+      <c r="J66" t="n">
+        <v>425</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2529413379.951739</v>
+        <v>2798046057.726285</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07003176800059964</v>
+        <v>0.08759227307465574</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03715114658333875</v>
+        <v>0.04525261203501495</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5368894697.526566</v>
+        <v>5747291183.885634</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1603488445509357</v>
+        <v>0.1419736180274137</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03187730264568518</v>
+        <v>0.0345620310391796</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>232</v>
+      </c>
+      <c r="J68" t="n">
+        <v>424</v>
+      </c>
+      <c r="K68" t="n">
+        <v>39.25533919024664</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1599177045.054857</v>
+        <v>2470446991.903425</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1420466007943712</v>
+        <v>0.1427287447963588</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04584760170251314</v>
+        <v>0.04470922902219975</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3568608516.12673</v>
+        <v>3184853595.48052</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07099419063547298</v>
+        <v>0.09795788136188653</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04853535664354505</v>
+        <v>0.0355863903962373</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2944,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4565900777.572364</v>
+        <v>5653754668.122758</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1311151014995012</v>
+        <v>0.1317901392874646</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02982096369533971</v>
+        <v>0.02173869106826074</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>296</v>
+      </c>
+      <c r="J71" t="n">
+        <v>425</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2085412633.048482</v>
+        <v>2187124629.888163</v>
       </c>
       <c r="F72" t="n">
-        <v>0.071320653241964</v>
+        <v>0.07412903714443314</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03459890509277291</v>
+        <v>0.04027581905880896</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3482501080.353228</v>
+        <v>2518323209.484582</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08897136682892338</v>
+        <v>0.06944760126597156</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03590454530772525</v>
+        <v>0.03701220552355215</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3049,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3642085221.60757</v>
+        <v>3429554843.708021</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1642254438775585</v>
+        <v>0.1221050040756992</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02369117593168193</v>
+        <v>0.025332799699853</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>122</v>
+      </c>
+      <c r="J74" t="n">
+        <v>425</v>
+      </c>
+      <c r="K74" t="n">
+        <v>40.96556643957287</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2093665556.34517</v>
+        <v>2106770811.244333</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1541769065035869</v>
+        <v>0.1400586338055451</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03558753078188021</v>
+        <v>0.03591881974491318</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4442120548.040887</v>
+        <v>3470735879.777158</v>
       </c>
       <c r="F76" t="n">
-        <v>0.120333998570074</v>
+        <v>0.08288484238110437</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02578166632569239</v>
+        <v>0.03305803534573671</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>202</v>
+      </c>
+      <c r="J76" t="n">
+        <v>423</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1526615951.353272</v>
+        <v>1487013710.644431</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1519320233808066</v>
+        <v>0.1864043328242164</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02449972760637669</v>
+        <v>0.02272924866313526</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3907876838.394115</v>
+        <v>4096688463.057163</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1238929752161319</v>
+        <v>0.1364007495718699</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04775095213754589</v>
+        <v>0.04981747544623454</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>213</v>
+      </c>
+      <c r="J78" t="n">
+        <v>424</v>
+      </c>
+      <c r="K78" t="n">
+        <v>39.70707007445808</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1429721778.570959</v>
+        <v>1270194404.184484</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1653847660988272</v>
+        <v>0.15721209489211</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03785869843164366</v>
+        <v>0.03655989607096503</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3961298539.993071</v>
+        <v>5620480570.46209</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07175323074420825</v>
+        <v>0.09675177163599752</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02929888026974188</v>
+        <v>0.02532050205738981</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>207</v>
+      </c>
+      <c r="J80" t="n">
+        <v>424</v>
+      </c>
+      <c r="K80" t="n">
+        <v>37.17282802788956</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5167669305.226509</v>
+        <v>4552042402.366081</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1189991819033823</v>
+        <v>0.09858847178765502</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03057665186958744</v>
+        <v>0.02433883203366756</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>197</v>
+      </c>
+      <c r="J81" t="n">
+        <v>425</v>
+      </c>
+      <c r="K81" t="n">
+        <v>40.6147137781548</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3337,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5262359781.891577</v>
+        <v>5447728181.270476</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1934619274173785</v>
+        <v>0.1410865842114537</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02505687667361453</v>
+        <v>0.02737042228720215</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>288</v>
+      </c>
+      <c r="J82" t="n">
+        <v>425</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2115687523.850436</v>
+        <v>2220722569.486216</v>
       </c>
       <c r="F83" t="n">
-        <v>0.127298498405449</v>
+        <v>0.1115415591229188</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03408017580800988</v>
+        <v>0.03098027831103039</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2182598598.798789</v>
+        <v>1895002104.936263</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1015786403630875</v>
+        <v>0.09895979420458692</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03795973576858053</v>
+        <v>0.04523934902680751</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3493305111.758169</v>
+        <v>2672694988.442811</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1196266072235057</v>
+        <v>0.1403678660330462</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03635641444170641</v>
+        <v>0.03959412316277723</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>55</v>
+      </c>
+      <c r="J85" t="n">
+        <v>421</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1960244805.840409</v>
+        <v>2343637492.373604</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1291110075392667</v>
+        <v>0.1204253213663073</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02088919567299843</v>
+        <v>0.01981242561837259</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1168979689.469447</v>
+        <v>1229516863.810563</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1823967811474344</v>
+        <v>0.140450050165879</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03485168982438415</v>
+        <v>0.03961577280467619</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2489530456.934419</v>
+        <v>3475949226.241491</v>
       </c>
       <c r="F88" t="n">
-        <v>0.16946209358591</v>
+        <v>0.1598314065067148</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02927213172966725</v>
+        <v>0.03672660267876499</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>54</v>
+      </c>
+      <c r="J88" t="n">
+        <v>419</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2803387245.751126</v>
+        <v>2646813262.4134</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1534007695958559</v>
+        <v>0.1438732473905783</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03013227965046729</v>
+        <v>0.03597588995260722</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1835571940.145865</v>
+        <v>1860470309.126204</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09880000430079114</v>
+        <v>0.09558452126824211</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04624125878270489</v>
+        <v>0.04911305109986137</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1509941809.399745</v>
+        <v>1272616417.781119</v>
       </c>
       <c r="F91" t="n">
-        <v>0.138066993519539</v>
+        <v>0.1853222068988106</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05452656359535701</v>
+        <v>0.05223642174405266</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2754280534.18076</v>
+        <v>2879495563.198471</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07588473329366793</v>
+        <v>0.09940780184847875</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03507666457944659</v>
+        <v>0.02996536574021743</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3974772865.633839</v>
+        <v>3901959318.906067</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09967685023186883</v>
+        <v>0.1373527607371637</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05406945767462269</v>
+        <v>0.0545338744636044</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>205</v>
+      </c>
+      <c r="J93" t="n">
+        <v>424</v>
+      </c>
+      <c r="K93" t="n">
+        <v>38.51446921549049</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1958679519.458685</v>
+        <v>1568964746.151838</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1189498349725864</v>
+        <v>0.1564877076943807</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04076753705791317</v>
+        <v>0.04173590409661513</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2011590395.933882</v>
+        <v>2326934666.964539</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09966958673014861</v>
+        <v>0.1206692948533665</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04118067946132085</v>
+        <v>0.04800767544617387</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2061294661.560059</v>
+        <v>1944107333.795618</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1044375345653561</v>
+        <v>0.104035751577318</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04066745267246814</v>
+        <v>0.04503468052588525</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4135827031.489024</v>
+        <v>4919510392.301375</v>
       </c>
       <c r="F97" t="n">
-        <v>0.14803917554875</v>
+        <v>0.1306870258411914</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02458030141005545</v>
+        <v>0.02254248512909562</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>222</v>
+      </c>
+      <c r="J97" t="n">
+        <v>425</v>
+      </c>
+      <c r="K97" t="n">
+        <v>40.45189991041892</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2595082583.223352</v>
+        <v>2473825536.52342</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1239258452334133</v>
+        <v>0.07926409861843903</v>
       </c>
       <c r="G98" t="n">
-        <v>0.024209150133554</v>
+        <v>0.02123894340877428</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>108</v>
+      </c>
+      <c r="J98" t="n">
+        <v>416</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2527003161.018288</v>
+        <v>3150094930.916432</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1038811795384017</v>
+        <v>0.09480064058222651</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02286962166875024</v>
+        <v>0.0293581215750778</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3844972839.715335</v>
+        <v>4351424308.035826</v>
       </c>
       <c r="F100" t="n">
-        <v>0.143950268852911</v>
+        <v>0.1331096193455371</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02027012119535239</v>
+        <v>0.02418348395582477</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>198</v>
+      </c>
+      <c r="J100" t="n">
+        <v>425</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3265451499.909684</v>
+        <v>3338953713.326581</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1616206250368795</v>
+        <v>0.177904395858718</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05764995580035847</v>
+        <v>0.05820385123004166</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
